--- a/ballots/2013-09 DSTU/QA/FHIR DSTU Review Template Teresa ConwayLicenseToMedAdminDef.xlsx
+++ b/ballots/2013-09 DSTU/QA/FHIR DSTU Review Template Teresa ConwayLicenseToMedAdminDef.xlsx
@@ -25,12 +25,12 @@
     <definedName name="MedicationAdministration.encounter" localSheetId="0">'Specification QA'!$A$40</definedName>
     <definedName name="MedicationAdministration.whenGiven" localSheetId="0">'Specification QA'!$A$41</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="148">
   <si>
     <t>Resource/Page</t>
   </si>
@@ -453,6 +453,27 @@
   </si>
   <si>
     <t>Identifies the speed with which the medication was introduced into the patient. Typically the rate for an infusion e.g. 200ml in 2 hours. May also be expressed as a rate per unit of time such as 100ml per hour - the duration is then not specified, or is specified in the quantity.</t>
+  </si>
+  <si>
+    <t>Grahame</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>not done</t>
+  </si>
+  <si>
+    <t>not relevant now</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can't find </t>
+  </si>
+  <si>
+    <t>defer</t>
   </si>
 </sst>
 </file>
@@ -870,13 +891,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +909,7 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,8 +928,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -927,8 +951,11 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -947,8 +974,11 @@
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -967,8 +997,11 @@
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -987,8 +1020,11 @@
       <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G5" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1007,8 +1043,11 @@
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1027,8 +1066,11 @@
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G7" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1047,8 +1089,11 @@
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G8" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1067,8 +1112,11 @@
       <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G9" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -1087,8 +1135,11 @@
       <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1107,8 +1158,11 @@
       <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -1116,7 +1170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -1132,8 +1186,11 @@
       <c r="F13" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G13" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -1149,8 +1206,11 @@
       <c r="F14" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G14" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="F15" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G15" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
@@ -1183,8 +1246,11 @@
       <c r="F16" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G16" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
@@ -1200,8 +1266,11 @@
       <c r="F17" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -1209,7 +1278,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -1228,8 +1297,11 @@
       <c r="F19" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G19" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -1248,8 +1320,11 @@
       <c r="F20" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="G20" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -1268,8 +1343,11 @@
       <c r="F21" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="G21" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
@@ -1288,8 +1366,11 @@
       <c r="F22" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>70</v>
       </c>
@@ -1297,7 +1378,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>72</v>
       </c>
@@ -1313,8 +1394,11 @@
       <c r="F24" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.15">
+      <c r="G24" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
@@ -1330,8 +1414,11 @@
       <c r="F25" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.15">
+      <c r="G25" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>79</v>
       </c>
@@ -1347,8 +1434,11 @@
       <c r="F26" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.15">
+      <c r="G26" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>80</v>
       </c>
@@ -1364,8 +1454,11 @@
       <c r="F27" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.15">
+      <c r="G27" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>81</v>
       </c>
@@ -1381,8 +1474,11 @@
       <c r="F28" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G28" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>82</v>
       </c>
@@ -1401,8 +1497,11 @@
       <c r="F29" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G29" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>86</v>
       </c>
@@ -1421,8 +1520,11 @@
       <c r="F30" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G30" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>90</v>
       </c>
@@ -1430,7 +1532,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>92</v>
       </c>
@@ -1446,8 +1548,11 @@
       <c r="F32" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G32" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>95</v>
       </c>
@@ -1466,8 +1571,11 @@
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G33" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>56</v>
       </c>
@@ -1486,8 +1594,11 @@
       <c r="F34" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G34" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>56</v>
       </c>
@@ -1506,8 +1617,11 @@
       <c r="F35" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G35" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>104</v>
       </c>
@@ -1526,8 +1640,11 @@
       <c r="F36" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>108</v>
       </c>
@@ -1546,8 +1663,11 @@
       <c r="F37" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G37" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>108</v>
       </c>
@@ -1566,8 +1686,11 @@
       <c r="F38" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G38" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>114</v>
       </c>
@@ -1586,8 +1709,11 @@
       <c r="F39" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.15">
+      <c r="G39" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>118</v>
       </c>
@@ -1606,8 +1732,11 @@
       <c r="F40" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="60" x14ac:dyDescent="0.15">
+      <c r="G40" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>122</v>
       </c>
@@ -1626,8 +1755,11 @@
       <c r="F41" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="G41" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>122</v>
       </c>
@@ -1646,8 +1778,11 @@
       <c r="F42" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="G42" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>130</v>
       </c>
@@ -1666,8 +1801,11 @@
       <c r="F43" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+      <c r="G43" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>133</v>
       </c>
@@ -1686,8 +1824,11 @@
       <c r="F44" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+      <c r="G44" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="75" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>133</v>
       </c>
@@ -1706,8 +1847,11 @@
       <c r="F45" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="105" x14ac:dyDescent="0.15">
+      <c r="G45" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="105" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>138</v>
       </c>
@@ -1722,6 +1866,9 @@
       </c>
       <c r="F46" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
